--- a/schematic/bom.xlsx
+++ b/schematic/bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DRAM-Tester-x1x4-lcd\schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362D14CC-1542-4182-8382-7E6451E0A96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F595703-577C-4F4D-9ECE-2F1ADA598772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="3270" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Register 1/4W, low tolerance</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Detail</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -221,10 +217,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>LED, D3.0mm, Yellow</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>OSY5JA3Z74A</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -297,10 +289,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>LED, D3.0mm, Green or Red</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -366,6 +354,18 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Register 1/4W, low tolerance (ex. 1%)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LED, D3.0mm, Yellow (Forward voltage 2.1V)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LED, D3.0mm, Green or Red (Forward voltage 2.1V)</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1353,9 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1369,15 +1367,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
@@ -1388,10 +1386,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -1402,16 +1400,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1430,13 +1428,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1444,21 +1442,21 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
@@ -1486,10 +1484,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1500,44 +1498,44 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1556,7 +1554,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>34</v>
@@ -1565,7 +1563,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1573,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>33</v>
@@ -1587,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>31</v>
@@ -1598,13 +1596,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1612,7 +1610,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
@@ -1626,7 +1624,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
@@ -1640,7 +1638,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
@@ -1654,13 +1652,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -1668,13 +1666,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -1682,7 +1680,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
@@ -1710,16 +1708,16 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
@@ -1738,21 +1736,21 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>16</v>
@@ -1766,30 +1764,30 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/schematic/bom.xlsx
+++ b/schematic/bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DRAM-Tester-x1x4-lcd\schematic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Project\Dram-Tester-x1x4-lcd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F595703-577C-4F4D-9ECE-2F1ADA598772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A3A693-87E0-4208-9B44-745DA26FA24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="3270" windowWidth="21600" windowHeight="12855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1365" windowWidth="21585" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dram-Tester-x1x4-lcd BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>Qnty</t>
   </si>
@@ -28,12 +28,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
     <t>MJ-179PH</t>
   </si>
   <si>
@@ -43,6 +37,9 @@
     <t>R16</t>
   </si>
   <si>
+    <t>DTS-63N-V</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -53,10 +50,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>TC7660S</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Super Charge Pump DC-to-DC Voltage Converter, DIP</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -105,15 +98,11 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ALUM capacitor, radial lead, lead pitch 2.5mm</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>0.1uF(100nF) 50V</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>47uF 16V</t>
+    <t>10uF 16V</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -153,6 +142,10 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>Register 1/4W, low tolerance</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>Detail</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -217,6 +210,14 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>LED, D3.0mm, Yellow</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LED, D3.0mm, Green</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>OSY5JA3Z74A</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -225,10 +226,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>C7</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>IC1</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -237,10 +234,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>C1-C4, C8</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>S2</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -249,10 +242,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>MLC capacitor or Ceramic capacitor, radial lead, lead pitch 5.0mm</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Dram-Tester-x1x4-lcd BOM</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -269,10 +258,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>C5, C9</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>D1</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -289,7 +274,19 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>-</t>
+    <t>4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C1-C4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C5, C8</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C6, C7</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -297,11 +294,23 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>(U1)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>10uF 50V</t>
+    <t>CN1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TJ7660</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>JP2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Pin Header 1x2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R19</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -309,63 +318,7 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>DTS-63N-V</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>(JP1)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Jumper Pin</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>(U2)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Pin Header 1x4</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Pin Header 1x15</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>(U3)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>9V-12V Center+ ACDC Adaptor</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Register 1/4W, low tolerance (ex. 1%)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LED, D3.0mm, Yellow (Forward voltage 2.1V)</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>LED, D3.0mm, Green or Red (Forward voltage 2.1V)</t>
+    <t>MLC capacitor or Ceramic capacitor, radial lead, lead pitch 2.5mm</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -534,7 +487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,7 +669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,7 +939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,13 +947,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1351,9 +1313,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1367,74 +1331,74 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1442,27 +1406,27 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1470,111 +1434,111 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2">
-        <v>13</v>
+      <c r="B14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1582,13 +1546,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1596,13 +1560,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1610,13 +1574,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
@@ -1624,13 +1588,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1638,13 +1602,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1652,13 +1616,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -1666,13 +1630,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -1680,13 +1644,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -1694,13 +1658,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1708,86 +1672,30 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>70</v>
+        <v>26</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
